--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,11 +48,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20123-8-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joyce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nemo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +418,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -453,11 +465,14 @@
       <c r="A3">
         <v>20124524</v>
       </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
-        <v>41152</v>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E3">
         <v>79</v>
@@ -468,7 +483,7 @@
         <v>20156243</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>42139</v>
@@ -481,8 +496,11 @@
       <c r="A5">
         <v>20116522</v>
       </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>40600</v>
